--- a/OrangeHRM_TestScenarios.xlsx
+++ b/OrangeHRM_TestScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Orange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995EC25-2AAD-4459-BE8A-9CCFF10FB903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C659D4-0D10-4642-90E9-C7E6B599ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="My Info Functionality " sheetId="4" r:id="rId4"/>
     <sheet name="Performance Functionality" sheetId="6" r:id="rId5"/>
     <sheet name="Recruitment Functionality" sheetId="5" r:id="rId6"/>
-    <sheet name="Performance_Testcase" sheetId="7" r:id="rId7"/>
+    <sheet name="Login_testcase" sheetId="9" r:id="rId7"/>
+    <sheet name="Admin_testcase" sheetId="10" r:id="rId8"/>
+    <sheet name="Performance_Testcase" sheetId="7" r:id="rId9"/>
+    <sheet name="Recuitment_testcase" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="966">
   <si>
     <t>Project Name</t>
   </si>
@@ -1841,12 +1845,2208 @@
   <si>
     <t>TC_Per_090</t>
   </si>
+  <si>
+    <t>PreparedBy:Rakesh</t>
+  </si>
+  <si>
+    <t>modulename:Recruitment</t>
+  </si>
+  <si>
+    <t>TC_Rec_001</t>
+  </si>
+  <si>
+    <t>TS_001(Recruitment)</t>
+  </si>
+  <si>
+    <t>Validate  using valid
+ credentials and clickon
+ Recin button</t>
+  </si>
+  <si>
+    <t>Open Application using
+ http://localhost/orange/web/index.php/auth/Recin
+using valid credentials</t>
+  </si>
+  <si>
+    <t>Enter username,
+password,
+clickonRecin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin
+Rakesh@1515
+</t>
+  </si>
+  <si>
+    <t>After click on Recin home page
+will appear with title</t>
+  </si>
+  <si>
+    <t>TC_Rec_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  home page with Recruitment module </t>
+  </si>
+  <si>
+    <t>Open Application using
+http://localhost/orange/web/index.php/auth/Recin</t>
+  </si>
+  <si>
+    <t>After Recin cliick on recruitment module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After click on recruitment page is open and display  sub modules like candidates,vacancy
+</t>
+  </si>
+  <si>
+    <t>TC_Rec_003</t>
+  </si>
+  <si>
+    <t>Validate Recruitment module page</t>
+  </si>
+  <si>
+    <t>Open Application using
+ http://localhost/orange/web/index.php/auth/Recin</t>
+  </si>
+  <si>
+    <t>After Recruitment module click on candidates page</t>
+  </si>
+  <si>
+    <t>After click on 
+candidates  page display candidates credentials fields</t>
+  </si>
+  <si>
+    <t>TC_Rec_004</t>
+  </si>
+  <si>
+    <t>Validate JobTitle dropdown field</t>
+  </si>
+  <si>
+    <t>Make sure that alerady mention some JobTitle</t>
+  </si>
+  <si>
+    <t>Click on specific Job title</t>
+  </si>
+  <si>
+    <t>Job title Name</t>
+  </si>
+  <si>
+    <t>JobTitle dropdown is selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_005</t>
+  </si>
+  <si>
+    <t>Validate JobTitle dropdown field is not selected and continue</t>
+  </si>
+  <si>
+    <t>Not select any JobTitle</t>
+  </si>
+  <si>
+    <t>Error msg will appear like select Job Title</t>
+  </si>
+  <si>
+    <t>TC_Rec_006</t>
+  </si>
+  <si>
+    <t>Validate vacancy
+dropdown field</t>
+  </si>
+  <si>
+    <t>Make sure that dropdown contasins some Vacancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on specific vacancy </t>
+  </si>
+  <si>
+    <t>Vacancy name</t>
+  </si>
+  <si>
+    <t>Vacancy dropdown is selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_007</t>
+  </si>
+  <si>
+    <t>Validate vacancy dropdown field not selected and continue</t>
+  </si>
+  <si>
+    <t>Make sure that alerady mention some Vacancy</t>
+  </si>
+  <si>
+    <t>Not select any vacancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Error msg will appear like select Vacancy</t>
+  </si>
+  <si>
+    <t>TC_Rec_008</t>
+  </si>
+  <si>
+    <t>Validate Hiring Manager
+dropdown field</t>
+  </si>
+  <si>
+    <t>Make sure that dropdown contasins  Manger name</t>
+  </si>
+  <si>
+    <t>Click on specific Hiring Manager</t>
+  </si>
+  <si>
+    <t>Hiring Manager 
+ Name</t>
+  </si>
+  <si>
+    <t>Hiring Manger dropdown is selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_009</t>
+  </si>
+  <si>
+    <t>Validate Hiring Manager
+dropdown field not selected and continue</t>
+  </si>
+  <si>
+    <t>Not select Manger</t>
+  </si>
+  <si>
+    <t>Error msg will appear like select Hiring Manager</t>
+  </si>
+  <si>
+    <t>TC_Rec_010</t>
+  </si>
+  <si>
+    <t>Validate status drop field</t>
+  </si>
+  <si>
+    <t>Make sure that dropdown contasins status</t>
+  </si>
+  <si>
+    <t>click on specific status</t>
+  </si>
+  <si>
+    <t>Shortlisted
+Rejected
+Interview passed
+Interview failed</t>
+  </si>
+  <si>
+    <t>Staus deopdown is selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_011</t>
+  </si>
+  <si>
+    <t>Validate status drop field is not selected and continue</t>
+  </si>
+  <si>
+    <t>Not select status</t>
+  </si>
+  <si>
+    <t>Error msg will appear like select status</t>
+  </si>
+  <si>
+    <t>TC_Rec_012</t>
+  </si>
+  <si>
+    <t>Validate the candidates name text field with valid name</t>
+  </si>
+  <si>
+    <t>Make sure that textfield is clear before enter name</t>
+  </si>
+  <si>
+    <t>enter a valid candidte name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakesh gj
+</t>
+  </si>
+  <si>
+    <t>candidatename field is filled</t>
+  </si>
+  <si>
+    <t>TC_Rec_013</t>
+  </si>
+  <si>
+    <t>Validate the candidates name text field with invalid name and special characters</t>
+  </si>
+  <si>
+    <t>enter a invalid Candidate name with special character</t>
+  </si>
+  <si>
+    <t>ra12@#kl</t>
+  </si>
+  <si>
+    <t>candidate name field display error like invalid</t>
+  </si>
+  <si>
+    <t>TC_Rec_014</t>
+  </si>
+  <si>
+    <t>Validate the candidates name text field without enter and continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not enter a name </t>
+  </si>
+  <si>
+    <t>Error msg will appear like Enter Candidate name</t>
+  </si>
+  <si>
+    <t>TC_Rec_015</t>
+  </si>
+  <si>
+    <t>Validate the candidates name text field with Different name which is not in the records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a  Different name </t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>At name field appear msg like no records found</t>
+  </si>
+  <si>
+    <t>TC_Rec_016</t>
+  </si>
+  <si>
+    <t>Validate the Candidates name text field with only uppercase</t>
+  </si>
+  <si>
+    <t>Enter name with uppercase char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAKESH GJ
+</t>
+  </si>
+  <si>
+    <t>TC_Rec_017</t>
+  </si>
+  <si>
+    <t>Validate the Candidates name text field with only lowercase</t>
+  </si>
+  <si>
+    <t>Enter name with lowercase char</t>
+  </si>
+  <si>
+    <t>Candidatesname field is filled</t>
+  </si>
+  <si>
+    <t>TC_Rec_018</t>
+  </si>
+  <si>
+    <t>Validate the Keywords text field using valid key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that Keywords field is clear before enter </t>
+  </si>
+  <si>
+    <t>Enter valid keywords</t>
+  </si>
+  <si>
+    <t>key1,key2</t>
+  </si>
+  <si>
+    <t>Keywords field is filled</t>
+  </si>
+  <si>
+    <t>TC_Rec_019</t>
+  </si>
+  <si>
+    <t>Validate the Keywords text field using valid keys with out comma</t>
+  </si>
+  <si>
+    <t>Enter valid keywords without comma</t>
+  </si>
+  <si>
+    <t>key1 key2</t>
+  </si>
+  <si>
+    <t>Error msg will appear like separate keywords</t>
+  </si>
+  <si>
+    <t>TC_Rec_020</t>
+  </si>
+  <si>
+    <t>Validate the Keywords text field using invalid key</t>
+  </si>
+  <si>
+    <t>Enter invalid keywords</t>
+  </si>
+  <si>
+    <t>132,abc</t>
+  </si>
+  <si>
+    <t>Error msg will appear like Enter valid key</t>
+  </si>
+  <si>
+    <t>TC_Rec_021</t>
+  </si>
+  <si>
+    <t>Validate the Keywords 
+text field using special 
+characters</t>
+  </si>
+  <si>
+    <t>Make sure that Keywords
+field is clear before enter</t>
+  </si>
+  <si>
+    <t>Enter Keywords using
+special characters</t>
+  </si>
+  <si>
+    <t>abc@#$,123@#</t>
+  </si>
+  <si>
+    <t>Error msg will 
+appear like not
+allowed special
+characters</t>
+  </si>
+  <si>
+    <t>TC_Rec_022</t>
+  </si>
+  <si>
+    <t>Validate the Date of 
+application from field</t>
+  </si>
+  <si>
+    <t>Make sure that from date 
+is clear before select</t>
+  </si>
+  <si>
+    <t>Select the valid date 
+from date pikker</t>
+  </si>
+  <si>
+    <t>14_03_2024</t>
+  </si>
+  <si>
+    <t>from date field is 
+selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_023</t>
+  </si>
+  <si>
+    <t>Validate the Date of 
+application from field is
+valid formate</t>
+  </si>
+  <si>
+    <t>Date is valid 
+formate</t>
+  </si>
+  <si>
+    <t>TC_Rec_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Date of
+ application from field is 
+not selected and continue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not select the date </t>
+  </si>
+  <si>
+    <t>Error msg will 
+appear like select  a from date</t>
+  </si>
+  <si>
+    <t>TC_Rec_025</t>
+  </si>
+  <si>
+    <t>Validate the Date of 
+application To field is
+valid formate</t>
+  </si>
+  <si>
+    <t>24_JAN_2025</t>
+  </si>
+  <si>
+    <t>To date field is 
+selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Date of
+ application TO field is 
+not selected and continue
+</t>
+  </si>
+  <si>
+    <t>Error msg will 
+appear like select  a To date</t>
+  </si>
+  <si>
+    <t>TC_Rec_027</t>
+  </si>
+  <si>
+    <t>Validate the both From 
+and To date field are 
+selected</t>
+  </si>
+  <si>
+    <t>Make sure thjat Both field 
+are selected</t>
+  </si>
+  <si>
+    <t>Both From and To
+Field is selected</t>
+  </si>
+  <si>
+    <t>TC_Rec_028</t>
+  </si>
+  <si>
+    <t>Validate the Method of 
+Application dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that dropdown is 
+not selected
+ </t>
+  </si>
+  <si>
+    <t>Select the manual option fromdropdown</t>
+  </si>
+  <si>
+    <t>Application drop
+down is selected 
+as manual</t>
+  </si>
+  <si>
+    <t>TC_Rec_029</t>
+  </si>
+  <si>
+    <t>Make sure that dropdown is 
+not selected</t>
+  </si>
+  <si>
+    <t>Select the online
+option fromdropdown</t>
+  </si>
+  <si>
+    <t>Application drop
+down is selected 
+as online</t>
+  </si>
+  <si>
+    <t>TC_Rec_030</t>
+  </si>
+  <si>
+    <t>Validate the method of 
+Application dropdown
+ is not selected and continue</t>
+  </si>
+  <si>
+    <t>Not select the
+ DropDown</t>
+  </si>
+  <si>
+    <t>Error msg will 
+appear like select Method of Application</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>OramgeHRM</t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Sathvik H P</t>
+  </si>
+  <si>
+    <t>Created Date:</t>
+  </si>
+  <si>
+    <t>Reviewed By:</t>
+  </si>
+  <si>
+    <t>Test Leads</t>
+  </si>
+  <si>
+    <t>Reviewed Date:</t>
+  </si>
+  <si>
+    <t>Test Scenario id</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Test Case id</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Excepted Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>Validate if theUser is able to enter  the OrangeHRM Login</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>To Verify that the User  shall login with they correct username and password</t>
+  </si>
+  <si>
+    <t>1) Browser should Launch correctly                                   2)Launch the url : local host.orangeHRM</t>
+  </si>
+  <si>
+    <t>1) Goto login page and enter the  correct details               2) User Enters the Username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:Admin         Password:Sathvik           </t>
+  </si>
+  <si>
+    <t>User Should be able to logged sucessful and should be on dashboard</t>
+  </si>
+  <si>
+    <t>1)User is on loginpage                  2) Add the details correctly                    3)Click on the login button</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>To Verify that the User  shall login with they incorrect username and password</t>
+  </si>
+  <si>
+    <t>1)Browser should Launch Correctly                                      2)Launch URL:http://localhost/orange/orangehrm-5.6.1/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Go To login page and enter the incorrect username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:admin         Password:1234           </t>
+  </si>
+  <si>
+    <t>User Should not be logged it shows wrong username and password</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>To verify that the user shall login any special cases</t>
+  </si>
+  <si>
+    <t>Go To login page and enter any special cases (*,$,#,) in username and password</t>
+  </si>
+  <si>
+    <t>Username:@%admin password:123@dr</t>
+  </si>
+  <si>
+    <t>User Should not be logged it shows Special Character Is not allowed</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>To verfiy the user Shall given the any blank space in the usernName and Password field</t>
+  </si>
+  <si>
+    <t>Go To login Page and cannot enter and thinkin the username and password field</t>
+  </si>
+  <si>
+    <t>Username:                    Password:</t>
+  </si>
+  <si>
+    <t>User Should not be logged because it shows Blank Field is Requried</t>
+  </si>
+  <si>
+    <t>PreparedBy:Ganesh</t>
+  </si>
+  <si>
+    <t>modulename:Admin</t>
+  </si>
+  <si>
+    <t>TS_002(Admin)</t>
+  </si>
+  <si>
+    <t>Validate on Admin Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on left side home page panel.
+2.click on the Admin module.3.click on the Nationalities
+</t>
+  </si>
+  <si>
+    <t>user name:admin
+password:GaneshMG@1997</t>
+  </si>
+  <si>
+    <t>After click on Admin home page will appear with title nationalities</t>
+  </si>
+  <si>
+    <t>TS_002.5(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>click on natioalities module dropdown</t>
+  </si>
+  <si>
+    <t>After open the admin module click on the nationalities sub module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be displayed all the added nationalities and  displayed  click on add button 
+</t>
+  </si>
+  <si>
+    <t>TS_002.5.1(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>Validate on add functionality of nationalities</t>
+  </si>
+  <si>
+    <t>1.click on add button
+2. enter the data 
+3.click on save button</t>
+  </si>
+  <si>
+    <t>Name:england</t>
+  </si>
+  <si>
+    <t>it should be save the given data and displayed in nationalities home page</t>
+  </si>
+  <si>
+    <t>TS_002.5.1.1(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>validate on  functionality  of add invalid credentials</t>
+  </si>
+  <si>
+    <t>make sure  succesfully passed for valid credentials</t>
+  </si>
+  <si>
+    <t>1.enter the invalid or already existing crendential
+2.click on the save button</t>
+  </si>
+  <si>
+    <t>it should be displayed "Already Exist"</t>
+  </si>
+  <si>
+    <t>TS_002.5.1.2(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>Validate on cancel functionality of add in nataionalities sub module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that alerady succesfully added to the new nationalities </t>
+  </si>
+  <si>
+    <t>1.click on add button
+2. enter the data 
+3.click on cancel button</t>
+  </si>
+  <si>
+    <t>Entered credentials should not be added</t>
+  </si>
+  <si>
+    <t>TS_002.5.2(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>Validate on delete functionality of nationalities sub module</t>
+  </si>
+  <si>
+    <t>Make sure that already it displaying some data in nationalities home page</t>
+  </si>
+  <si>
+    <t>1.click on the delete button 
+2.click on the yes,delete button</t>
+  </si>
+  <si>
+    <t>nation:afghan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once deleted the nationality it should not displayed and it should not be there in stored list. </t>
+  </si>
+  <si>
+    <t>TS_002.5.3(Admin-Nationalities)</t>
+  </si>
+  <si>
+    <t>Validate on edit functionality of nationalities sub module</t>
+  </si>
+  <si>
+    <t>Make sure that alerady it had some data</t>
+  </si>
+  <si>
+    <t>1.click on edit button
+2.change the exist data by entering new data 
+3.then click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Name:bharatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be dispaly the changed one nationality name. </t>
+  </si>
+  <si>
+    <t>TS_002.6(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on corporate branding dropdown</t>
+  </si>
+  <si>
+    <t>1.Open Application using
+http://localhost/orange/web/index.php/auth/Recin
+2.login to applcation using test dat</t>
+  </si>
+  <si>
+    <t>1.click on left side home page panel.
+2.click on the Admin module.
+3.click on the Corporate Branding</t>
+  </si>
+  <si>
+    <t>it should open the home page of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.1(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  primary color functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>Make sure that contasins  default white color already</t>
+  </si>
+  <si>
+    <t>1.click on color button of primary color
+2.select one suitable color</t>
+  </si>
+  <si>
+    <t>it should be displayed selected color</t>
+  </si>
+  <si>
+    <t>TS_002.6.2(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  primary Front color functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.3(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  primary Gradient color 1 functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.4(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  Secondary color functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.5(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  Secondary Front color functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.6(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on  Primary Gradient color 2 functionalty of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.6.7(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on Client Logo functionality of corporate branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that local location have some logos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on browse button 
+2.select local location path of saved logo folder
+3.then select the logo 
+4.then click on the open button </t>
+  </si>
+  <si>
+    <t>seleccted logo should be displayed</t>
+  </si>
+  <si>
+    <t>TS_002.6.8(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on Client Banner of  functionality of corporate branding</t>
+  </si>
+  <si>
+    <t>Make sure that local location have some banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on browse button 
+2.select local location path of saved banner folder
+3.then select the banner 
+4.then click on the open button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>seleccted banner should be displayed</t>
+  </si>
+  <si>
+    <t>TS_002.6.9(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on Login Banner  functionality of corporate branding</t>
+  </si>
+  <si>
+    <t>Make sure that local location have some  login banner</t>
+  </si>
+  <si>
+    <t>seleccted login banner should be displayed</t>
+  </si>
+  <si>
+    <t>TS_002.6.10(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on Social media images Switches functionality of corporate branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make sure that switches is  enabled defaultly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on switches button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be disable </t>
+  </si>
+  <si>
+    <t>TS_002.6.11(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on preview functionality of corporate branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make sure that all the neccassity datas are filled to preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on preview button once filled every data  </t>
+  </si>
+  <si>
+    <t>it should displayed as per data entered</t>
+  </si>
+  <si>
+    <t>TS_002.6.12(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>validate on Publish funtionality of corporate branding</t>
+  </si>
+  <si>
+    <t>make sure that required datas are added and uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Publish button once added every data and uploaded datas </t>
+  </si>
+  <si>
+    <t>it should be displayed as per data</t>
+  </si>
+  <si>
+    <t>TS_002.6.13(Admin-
+Corporate Branding)</t>
+  </si>
+  <si>
+    <t>Validate on reset to  deafult functionality of corporate branding</t>
+  </si>
+  <si>
+    <t>Make sure that already it 
+had some data</t>
+  </si>
+  <si>
+    <t>1.enter all required data and save it 
+2.then click on reset to defaut button</t>
+  </si>
+  <si>
+    <t>it should reset to the default status of corporate branding</t>
+  </si>
+  <si>
+    <t>TS_002.7(Admin-
+Configuration))</t>
+  </si>
+  <si>
+    <t>Validate on corporate Configuration</t>
+  </si>
+  <si>
+    <t>1.click on left side home page panel.
+2.click on the Admin module.
+3.click on the Configuration</t>
+  </si>
+  <si>
+    <t>it should be displayed configuration home page dispalyed</t>
+  </si>
+  <si>
+    <t>TS_002.7.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate on email configuration dropdown</t>
+  </si>
+  <si>
+    <t>Make sure that in side  configuration sub module email configuration is displaying</t>
+  </si>
+  <si>
+    <t>1.click on configuration sub module dropdown 
+2.then select the email configuration</t>
+  </si>
+  <si>
+    <t>it should open email configuration home page</t>
+  </si>
+  <si>
+    <t>TS_002.7.1.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on mail sent as functionality of email configuration</t>
+  </si>
+  <si>
+    <t>Make sure that email configuration page is open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter the given email
+ name  </t>
+  </si>
+  <si>
+    <t>tree@gmail.com</t>
+  </si>
+  <si>
+    <t>it should take the email entered</t>
+  </si>
+  <si>
+    <t>TS_002.7.1.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on sendmail functionality of sending method checkboxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure that already added valid email in email sent as </t>
+  </si>
+  <si>
+    <t>click on sendmail checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be selected </t>
+  </si>
+  <si>
+    <t>TS_002.7.1.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate on save functionality of email configuration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that already added valid email in email sent as </t>
+  </si>
+  <si>
+    <t>click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be saved the email </t>
+  </si>
+  <si>
+    <t>TS_002.7.1.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate on reset functionality of email configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that entered valid email </t>
+  </si>
+  <si>
+    <t>click on reset button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be reset </t>
+  </si>
+  <si>
+    <t>Validate onEmail Subscriptions</t>
+  </si>
+  <si>
+    <t>it should be displayed Email Subscriptions home page dispalyed</t>
+  </si>
+  <si>
+    <t>TS_002.7.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate on email subscription dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that in side  configuration sub module email subscription is displaying
+ </t>
+  </si>
+  <si>
+    <t>1.click on configuration sub module dropdown 
+2.then select the email subscription</t>
+  </si>
+  <si>
+    <t>it should open email subscription home page</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate the leave appliactions of email subscriptions</t>
+  </si>
+  <si>
+    <t>Make sure that email subscription page is opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click on add button in leave apllication 
+2.then again click on add button </t>
+  </si>
+  <si>
+    <t>it should be open the add page</t>
+  </si>
+  <si>
+    <t>TC_Rec_031</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on name functionality of leave application in email subscription</t>
+  </si>
+  <si>
+    <t>Make sure that add page is open</t>
+  </si>
+  <si>
+    <t>1.enter the valid name</t>
+  </si>
+  <si>
+    <t>hithesh</t>
+  </si>
+  <si>
+    <t>name should be dispalyed</t>
+  </si>
+  <si>
+    <t>TC_Rec_032</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on email
+ functionality of
+ leave application in
+ email subscription</t>
+  </si>
+  <si>
+    <t>Make sure that add page is
+ open</t>
+  </si>
+  <si>
+    <t>enter the valid email</t>
+  </si>
+  <si>
+    <t>hithesh@orangehrm.com</t>
+  </si>
+  <si>
+    <t>email should be 
+displayed</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>TC_Rec_033</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on save button
+ functionality of
+ leave application in
+ email subscription</t>
+  </si>
+  <si>
+    <t>Make sure that add page is
+ open and added the required 
+name and email</t>
+  </si>
+  <si>
+    <t>it should be save the 
+enter details</t>
+  </si>
+  <si>
+    <t>TC_Rec_034</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>valid ate on cancel button
+ functionality of
+ leave application in
+ email subscription</t>
+  </si>
+  <si>
+    <t>click on cancel button</t>
+  </si>
+  <si>
+    <t>it should be cancel 
+the aded details on add page</t>
+  </si>
+  <si>
+    <t>TC_Rec_035</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.1.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on switches
+ checkbox fuctionality 
+of leave application in
+ email subscription</t>
+  </si>
+  <si>
+    <t>make sure that already
+ added the name and email
+ in leave application</t>
+  </si>
+  <si>
+    <t>enable the switches
+ checkbox</t>
+  </si>
+  <si>
+    <t>it should be
+ enabled</t>
+  </si>
+  <si>
+    <t>TC_Rec_036</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate theLeave Approvals of email subscriptions</t>
+  </si>
+  <si>
+    <t>TC_Rec_037</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on name functionality of Leave Approvals in email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_038</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on email
+ functionality of
+Leave Approvals in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_039</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on save button
+ functionality of
+ Leave Approvals in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_040</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>valid ate on cancel button
+ functionality of
+Leave Approvals in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_041</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.2.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on switches
+ checkbox fuctionality 
+of Leave Approvals in
+ email subscription</t>
+  </si>
+  <si>
+    <t>make sure that already
+ added the name and email
+ in Leave Approvals</t>
+  </si>
+  <si>
+    <t>TC_Rec_042</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate theLeave Assignments of email subscriptions</t>
+  </si>
+  <si>
+    <t>TC_Rec_043</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on name functionality ofLeave Assignments in email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_044</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on email
+ functionality of
+Leave Assignments in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_045</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on save button
+ functionality of
+Leave Assignments in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_046</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>valid ate on cancel button
+ functionality of
+ Leave Assignments in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_047</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.3.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on switches
+ checkbox fuctionality 
+of Leave Assignments in
+ email subscription</t>
+  </si>
+  <si>
+    <t>make sure that already
+ added the name and email
+ in  Leave Assignments</t>
+  </si>
+  <si>
+    <t>TC_Rec_048</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate theLeave Cancellations of email subscriptions</t>
+  </si>
+  <si>
+    <t>TC_Rec_049</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on name functionality of Leave Cancellations email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_050</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on email
+ functionality of
+Leave Cancellations in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_051</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on save button
+ functionality of
+Leave Cancellations in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_052</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>valid ate on cancel button
+ functionality of
+Leave Cancellations in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_053</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.4.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on switches
+ checkbox fuctionality 
+of Leave Cancellations in
+ email subscription</t>
+  </si>
+  <si>
+    <t>make sure that already
+ added the name and email
+ in Leave Cancellations</t>
+  </si>
+  <si>
+    <t>TC_Rec_054</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate theLeave Rejections of email subscriptions</t>
+  </si>
+  <si>
+    <t>TC_Rec_055</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on name functionality ofLeave Rejections in email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_056</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on email
+ functionality of
+Leave Rejections in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_057</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>TC_Rec_058</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>valid ate on cancel button
+ functionality of
+Leave Rejections in
+ email subscription</t>
+  </si>
+  <si>
+    <t>TC_Rec_059</t>
+  </si>
+  <si>
+    <t>TS_002.7.2.5.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on switches
+ checkbox fuctionality 
+of Leave Rejections in
+ email subscription</t>
+  </si>
+  <si>
+    <t>make sure that already
+ added the name and email
+ in Leave Rejections</t>
+  </si>
+  <si>
+    <t>TC_Rec_060</t>
+  </si>
+  <si>
+    <t>Validate on Localization</t>
+  </si>
+  <si>
+    <t>1.click on left side home page panel.
+2.click on the Admin module.
+3.click on the Configuration
+4.click on localization</t>
+  </si>
+  <si>
+    <t>it should be displayed Localization home page dispalyed</t>
+  </si>
+  <si>
+    <t>TC_Rec_061</t>
+  </si>
+  <si>
+    <t>TS_002.7.3.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate on languages
+ functionality of
+ localization </t>
+  </si>
+  <si>
+    <t>make sure that
+ deafult language is
+ present in dropdown box</t>
+  </si>
+  <si>
+    <t>1.click on dropdown
+ box of language
+2.select one language</t>
+  </si>
+  <si>
+    <t>it should be
+ selected the
+ language</t>
+  </si>
+  <si>
+    <t>TC_Rec_062</t>
+  </si>
+  <si>
+    <t>TS_002.7.3.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on date format
+ functionality of
+ localization</t>
+  </si>
+  <si>
+    <t>make sure that default
+ date format is present</t>
+  </si>
+  <si>
+    <t>1.click on date format
+ dropdown box
+2.select one date format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it shoul be selected 
+one date format </t>
+  </si>
+  <si>
+    <t>TC_Rec_063</t>
+  </si>
+  <si>
+    <t>TS_002.7.3.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on save button 
+ functionality of
+ localization</t>
+  </si>
+  <si>
+    <t>make sure that date format
+ and language is selected</t>
+  </si>
+  <si>
+    <t>it should be save</t>
+  </si>
+  <si>
+    <t>TC_Rec_064</t>
+  </si>
+  <si>
+    <t>TS_002.7(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>Validate on modules</t>
+  </si>
+  <si>
+    <t>1.click on left side home page panel.
+2.click on the Admin module.
+3.click on the Configuration
+4.click on modules</t>
+  </si>
+  <si>
+    <t>it should be displayed Module Configuration
+home page dispalyed</t>
+  </si>
+  <si>
+    <t>TC_Rec_065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_002.7.4.1(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Leave Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure that it enabled 
+defaultly </t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of leave
+ module
+2.then click save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be 
+diasable </t>
+  </si>
+  <si>
+    <t>TC_Rec_066</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.2(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+validate on save button functionality of modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+make sure that switches box is enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+it should be save</t>
+  </si>
+  <si>
+    <t>TC_Rec_067</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.3(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Time Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Time Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_068</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.4(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Recruitment Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Recruitment Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_069</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.5(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Performance Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Performance Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_070</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.6(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Directory Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Directory Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_071</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.7(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Maintenance Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Maintenance Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_072</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.8(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Mobile
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Mobile
+2.then click save button</t>
+  </si>
+  <si>
+    <t>TC_Rec_073</t>
+  </si>
+  <si>
+    <t>TS_002.7.4.9(Admin-
+Configuration)</t>
+  </si>
+  <si>
+    <t>validate on Claim Module
+ switches checkbox 
+functionality of module</t>
+  </si>
+  <si>
+    <t>1.click on switches 
+checkbox of Claim Module
+2.then click save button</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>User Creation</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Admin on the Dashboard and click on User Management. 
+3. Click on "User" button and typer user name.
+4. Click on User Role
+5. Select Admin
+6. Click on Employee Name and type random Employee name
+7. Click on status and Select Enabled
+8. Click on add</t>
+  </si>
+  <si>
+    <t>User should be able to add the user details.</t>
+  </si>
+  <si>
+    <t>User is successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Admin on the Dashboard and click on User Management. 
+4. Click on User Role
+5. Select Ess
+6. Click on Employee Name
+7. Eneter Employee Name and enter random employee name
+8. Click on status and Select disabled
+5. Click on search</t>
+  </si>
+  <si>
+    <t>Pop-up message to show no records found</t>
+  </si>
+  <si>
+    <t>User is not searched</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Admin and click on User Management. 
+3. Click on "User" button and keep it blank
+4. Click on User Role and keep it balnk
+6. Click on Employee Name and Keep it blank
+8. Click on status and keep it balnk
+5. Click on Search</t>
+  </si>
+  <si>
+    <t>User details displayed correctly</t>
+  </si>
+  <si>
+    <t>User is successfully searched</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>User Update</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Admin and click on User Management. 
+3. Search for an existing user. 
+4. Click on the user to edit. 
+5. Update user details. 
+6. Click "Save".</t>
+  </si>
+  <si>
+    <t>User should be able to Edit the details correctly.</t>
+  </si>
+  <si>
+    <t>User details are successfully updated.</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>User Deletion</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Admin and click on User Management. 
+3. Search for an existing user. 
+4. Select the user. 
+5. Click on "Delete" button. 
+6. Confirm deletion.</t>
+  </si>
+  <si>
+    <t>Able to delete the user.</t>
+  </si>
+  <si>
+    <t>User is successfully deleted from the system.</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Job Creation</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Click on "Add Job Title" button.
+4. Type in Job Title
+5. Type in Job Description  
+6. Click "Save".
+7. Verify Successful Message</t>
+  </si>
+  <si>
+    <t>Able to save the Job Title</t>
+  </si>
+  <si>
+    <t>Job title is successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Click on "Employment Status" button.
+4. Verify on the message no records found
+4. Click on Add button
+5. Type in Name Section  
+6. Click "Save".
+7. Verify Successful Message</t>
+  </si>
+  <si>
+    <t>Able to save the Employement Status</t>
+  </si>
+  <si>
+    <t>Employement status is successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Click on "Work Shifts" button.
+4. Click on Add button
+5. Type in Shift Name
+6. Select Work Hours from 9 to 6 PM
+6. Click "Save".
+7. Verify Successful Message</t>
+  </si>
+  <si>
+    <t>Able to save the Work Shifts</t>
+  </si>
+  <si>
+    <t>Work Shifts is successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Click on "Pay grades" button.
+4. Click on Add button
+5. Type in Name Section  
+6. Click "Save".
+7. Verify Successful Message</t>
+  </si>
+  <si>
+    <t>Able to save the Pay Grades</t>
+  </si>
+  <si>
+    <t>Paygrade is successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Job Update</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Search for an existing job title.
+4. Click on the job title to edit. 
+5. Update job details. 
+6. Click "Save".</t>
+  </si>
+  <si>
+    <t>Job details updated corrctly</t>
+  </si>
+  <si>
+    <t>Job details are successfully updated.</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Job Deletion</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Job. 
+3. Search for an existing job title. 
+4. Select the job title. 
+5. Click on "Delete" button. 
+6. Confirm deletion.</t>
+  </si>
+  <si>
+    <t>Job title deleted.</t>
+  </si>
+  <si>
+    <t>Job title is successfully deleted from the system.</t>
+  </si>
+  <si>
+    <t>TC_0012</t>
+  </si>
+  <si>
+    <t>Organization Creation</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Organization. 
+3. Click on "General Information" button.
+4.Type in Organization Name
+5. Turn on Edit Option
+6. Type in Registration Number
+7. Type in Tax ID
+8. Type in Phone Number
+9. Type Email ID
+10. Fill in Address Details
+11. Select Country
+12. Type in notes
+13. Click on Save
+14. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to save the  Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organization details are successfully created and added to the system.</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Organization. 
+3. Click on "Locations".
+4.Type in Name
+5. Type the City Name
+6. Select Country India
+7. Click on Add
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add Locations Details</t>
+  </si>
+  <si>
+    <t>Locations details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0013</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Organization. 
+3. Click on "Structures".
+4. Click on Add 
+4.Type in Unit ID
+5. Type in Name
+6. Type in the Description
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add "Structures" Details</t>
+  </si>
+  <si>
+    <t>"Structures" details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0014</t>
+  </si>
+  <si>
+    <t>Qualifications Creation</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Qualifications and click on Skills
+3. Verify the message "Np records found"
+4. Click on "add".
+5.Type in Name
+6. Type in the Description
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add skills</t>
+  </si>
+  <si>
+    <t>skill details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0015</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Qualifications and click on Education. 
+3. Verify the message "Np records found"
+4. Click on "add".
+5.Type in Level
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add Education Details</t>
+  </si>
+  <si>
+    <t>Eductaion details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0016</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Qualifications and click on Licenses.
+3. Verify the message "Np records found"
+4. Click on "add".
+5.Type in Name
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add Licenses Details</t>
+  </si>
+  <si>
+    <t>Licenses details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0017</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Qualifications and click on Languages.
+3. Verify the message "Np records found"
+4. Click on "add".
+5.Type in Name(Lanuage)
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add Lanuage Details</t>
+  </si>
+  <si>
+    <t>Lanuage details are successfully added to the system.</t>
+  </si>
+  <si>
+    <t>TC_0018</t>
+  </si>
+  <si>
+    <t>1. Log in to Orange HRM website. 
+2. Navigate to Qualifications and click on Memberships.
+3. Verify the message "Np records found"
+4. Click on "add".
+5.Type in Name(Lanuage)
+7. Click on save
+8. Verify successfull Message</t>
+  </si>
+  <si>
+    <t>Able to add Memberships Details</t>
+  </si>
+  <si>
+    <t>Memberships details are successfully added to the system.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1923,8 +4123,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,8 +4225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2069,11 +4339,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2113,8 +4436,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2508,6 +4909,2025 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B7A1-3A45-482E-B3E7-3581938C5F2C}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="25" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27"/>
+    <col min="11" max="11" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12" max="256" width="9.1796875" style="27"/>
+    <col min="257" max="257" width="30.54296875" style="27" customWidth="1"/>
+    <col min="258" max="258" width="24.81640625" style="27" customWidth="1"/>
+    <col min="259" max="259" width="27.54296875" style="27" customWidth="1"/>
+    <col min="260" max="260" width="32.54296875" style="27" customWidth="1"/>
+    <col min="261" max="261" width="25" style="27" customWidth="1"/>
+    <col min="262" max="262" width="23.54296875" style="27" customWidth="1"/>
+    <col min="263" max="263" width="19.81640625" style="27" customWidth="1"/>
+    <col min="264" max="264" width="16.81640625" style="27" customWidth="1"/>
+    <col min="265" max="265" width="13.26953125" style="27" customWidth="1"/>
+    <col min="266" max="266" width="9.1796875" style="27"/>
+    <col min="267" max="267" width="14.81640625" style="27" customWidth="1"/>
+    <col min="268" max="512" width="9.1796875" style="27"/>
+    <col min="513" max="513" width="30.54296875" style="27" customWidth="1"/>
+    <col min="514" max="514" width="24.81640625" style="27" customWidth="1"/>
+    <col min="515" max="515" width="27.54296875" style="27" customWidth="1"/>
+    <col min="516" max="516" width="32.54296875" style="27" customWidth="1"/>
+    <col min="517" max="517" width="25" style="27" customWidth="1"/>
+    <col min="518" max="518" width="23.54296875" style="27" customWidth="1"/>
+    <col min="519" max="519" width="19.81640625" style="27" customWidth="1"/>
+    <col min="520" max="520" width="16.81640625" style="27" customWidth="1"/>
+    <col min="521" max="521" width="13.26953125" style="27" customWidth="1"/>
+    <col min="522" max="522" width="9.1796875" style="27"/>
+    <col min="523" max="523" width="14.81640625" style="27" customWidth="1"/>
+    <col min="524" max="768" width="9.1796875" style="27"/>
+    <col min="769" max="769" width="30.54296875" style="27" customWidth="1"/>
+    <col min="770" max="770" width="24.81640625" style="27" customWidth="1"/>
+    <col min="771" max="771" width="27.54296875" style="27" customWidth="1"/>
+    <col min="772" max="772" width="32.54296875" style="27" customWidth="1"/>
+    <col min="773" max="773" width="25" style="27" customWidth="1"/>
+    <col min="774" max="774" width="23.54296875" style="27" customWidth="1"/>
+    <col min="775" max="775" width="19.81640625" style="27" customWidth="1"/>
+    <col min="776" max="776" width="16.81640625" style="27" customWidth="1"/>
+    <col min="777" max="777" width="13.26953125" style="27" customWidth="1"/>
+    <col min="778" max="778" width="9.1796875" style="27"/>
+    <col min="779" max="779" width="14.81640625" style="27" customWidth="1"/>
+    <col min="780" max="1024" width="9.1796875" style="27"/>
+    <col min="1025" max="1025" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="24.81640625" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1029" max="1029" width="25" style="27" customWidth="1"/>
+    <col min="1030" max="1030" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1032" max="1032" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1034" max="1034" width="9.1796875" style="27"/>
+    <col min="1035" max="1035" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1036" max="1280" width="9.1796875" style="27"/>
+    <col min="1281" max="1281" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="24.81640625" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1285" max="1285" width="25" style="27" customWidth="1"/>
+    <col min="1286" max="1286" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1288" max="1288" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1290" max="1290" width="9.1796875" style="27"/>
+    <col min="1291" max="1291" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1292" max="1536" width="9.1796875" style="27"/>
+    <col min="1537" max="1537" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="24.81640625" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1541" max="1541" width="25" style="27" customWidth="1"/>
+    <col min="1542" max="1542" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1544" max="1544" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1546" max="1546" width="9.1796875" style="27"/>
+    <col min="1547" max="1547" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1548" max="1792" width="9.1796875" style="27"/>
+    <col min="1793" max="1793" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="24.81640625" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1797" max="1797" width="25" style="27" customWidth="1"/>
+    <col min="1798" max="1798" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1800" max="1800" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1802" max="1802" width="9.1796875" style="27"/>
+    <col min="1803" max="1803" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1804" max="2048" width="9.1796875" style="27"/>
+    <col min="2049" max="2049" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="24.81640625" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2053" max="2053" width="25" style="27" customWidth="1"/>
+    <col min="2054" max="2054" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2056" max="2056" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2058" max="2058" width="9.1796875" style="27"/>
+    <col min="2059" max="2059" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2060" max="2304" width="9.1796875" style="27"/>
+    <col min="2305" max="2305" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="24.81640625" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2309" max="2309" width="25" style="27" customWidth="1"/>
+    <col min="2310" max="2310" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2312" max="2312" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2314" max="2314" width="9.1796875" style="27"/>
+    <col min="2315" max="2315" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2316" max="2560" width="9.1796875" style="27"/>
+    <col min="2561" max="2561" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="24.81640625" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2565" max="2565" width="25" style="27" customWidth="1"/>
+    <col min="2566" max="2566" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2568" max="2568" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2570" max="2570" width="9.1796875" style="27"/>
+    <col min="2571" max="2571" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2572" max="2816" width="9.1796875" style="27"/>
+    <col min="2817" max="2817" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="24.81640625" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2821" max="2821" width="25" style="27" customWidth="1"/>
+    <col min="2822" max="2822" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2824" max="2824" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2826" max="2826" width="9.1796875" style="27"/>
+    <col min="2827" max="2827" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2828" max="3072" width="9.1796875" style="27"/>
+    <col min="3073" max="3073" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="24.81640625" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3077" max="3077" width="25" style="27" customWidth="1"/>
+    <col min="3078" max="3078" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3080" max="3080" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3082" max="3082" width="9.1796875" style="27"/>
+    <col min="3083" max="3083" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3084" max="3328" width="9.1796875" style="27"/>
+    <col min="3329" max="3329" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="24.81640625" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3333" max="3333" width="25" style="27" customWidth="1"/>
+    <col min="3334" max="3334" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3336" max="3336" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3338" max="3338" width="9.1796875" style="27"/>
+    <col min="3339" max="3339" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3340" max="3584" width="9.1796875" style="27"/>
+    <col min="3585" max="3585" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="24.81640625" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3589" max="3589" width="25" style="27" customWidth="1"/>
+    <col min="3590" max="3590" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3592" max="3592" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3594" max="3594" width="9.1796875" style="27"/>
+    <col min="3595" max="3595" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3596" max="3840" width="9.1796875" style="27"/>
+    <col min="3841" max="3841" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="24.81640625" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3845" max="3845" width="25" style="27" customWidth="1"/>
+    <col min="3846" max="3846" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3848" max="3848" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3850" max="3850" width="9.1796875" style="27"/>
+    <col min="3851" max="3851" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3852" max="4096" width="9.1796875" style="27"/>
+    <col min="4097" max="4097" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="24.81640625" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4101" max="4101" width="25" style="27" customWidth="1"/>
+    <col min="4102" max="4102" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4104" max="4104" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4106" max="4106" width="9.1796875" style="27"/>
+    <col min="4107" max="4107" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4108" max="4352" width="9.1796875" style="27"/>
+    <col min="4353" max="4353" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="24.81640625" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4357" max="4357" width="25" style="27" customWidth="1"/>
+    <col min="4358" max="4358" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4360" max="4360" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4362" max="4362" width="9.1796875" style="27"/>
+    <col min="4363" max="4363" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4364" max="4608" width="9.1796875" style="27"/>
+    <col min="4609" max="4609" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="24.81640625" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4613" max="4613" width="25" style="27" customWidth="1"/>
+    <col min="4614" max="4614" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4616" max="4616" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4618" max="4618" width="9.1796875" style="27"/>
+    <col min="4619" max="4619" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4620" max="4864" width="9.1796875" style="27"/>
+    <col min="4865" max="4865" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="24.81640625" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4869" max="4869" width="25" style="27" customWidth="1"/>
+    <col min="4870" max="4870" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4872" max="4872" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4874" max="4874" width="9.1796875" style="27"/>
+    <col min="4875" max="4875" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4876" max="5120" width="9.1796875" style="27"/>
+    <col min="5121" max="5121" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="24.81640625" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5125" max="5125" width="25" style="27" customWidth="1"/>
+    <col min="5126" max="5126" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5128" max="5128" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5130" max="5130" width="9.1796875" style="27"/>
+    <col min="5131" max="5131" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5132" max="5376" width="9.1796875" style="27"/>
+    <col min="5377" max="5377" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="24.81640625" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5381" max="5381" width="25" style="27" customWidth="1"/>
+    <col min="5382" max="5382" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5384" max="5384" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5386" max="5386" width="9.1796875" style="27"/>
+    <col min="5387" max="5387" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5388" max="5632" width="9.1796875" style="27"/>
+    <col min="5633" max="5633" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="24.81640625" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5637" max="5637" width="25" style="27" customWidth="1"/>
+    <col min="5638" max="5638" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5640" max="5640" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5642" max="5642" width="9.1796875" style="27"/>
+    <col min="5643" max="5643" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5644" max="5888" width="9.1796875" style="27"/>
+    <col min="5889" max="5889" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="24.81640625" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5893" max="5893" width="25" style="27" customWidth="1"/>
+    <col min="5894" max="5894" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5896" max="5896" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5898" max="5898" width="9.1796875" style="27"/>
+    <col min="5899" max="5899" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5900" max="6144" width="9.1796875" style="27"/>
+    <col min="6145" max="6145" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="24.81640625" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6149" max="6149" width="25" style="27" customWidth="1"/>
+    <col min="6150" max="6150" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6152" max="6152" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6154" max="6154" width="9.1796875" style="27"/>
+    <col min="6155" max="6155" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6156" max="6400" width="9.1796875" style="27"/>
+    <col min="6401" max="6401" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="24.81640625" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6405" max="6405" width="25" style="27" customWidth="1"/>
+    <col min="6406" max="6406" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6408" max="6408" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6410" max="6410" width="9.1796875" style="27"/>
+    <col min="6411" max="6411" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6412" max="6656" width="9.1796875" style="27"/>
+    <col min="6657" max="6657" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="24.81640625" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6661" max="6661" width="25" style="27" customWidth="1"/>
+    <col min="6662" max="6662" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6664" max="6664" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6666" max="6666" width="9.1796875" style="27"/>
+    <col min="6667" max="6667" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6668" max="6912" width="9.1796875" style="27"/>
+    <col min="6913" max="6913" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="24.81640625" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6917" max="6917" width="25" style="27" customWidth="1"/>
+    <col min="6918" max="6918" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6920" max="6920" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6922" max="6922" width="9.1796875" style="27"/>
+    <col min="6923" max="6923" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6924" max="7168" width="9.1796875" style="27"/>
+    <col min="7169" max="7169" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="24.81640625" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7173" max="7173" width="25" style="27" customWidth="1"/>
+    <col min="7174" max="7174" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7176" max="7176" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7178" max="7178" width="9.1796875" style="27"/>
+    <col min="7179" max="7179" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7180" max="7424" width="9.1796875" style="27"/>
+    <col min="7425" max="7425" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="24.81640625" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7429" max="7429" width="25" style="27" customWidth="1"/>
+    <col min="7430" max="7430" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7432" max="7432" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7434" max="7434" width="9.1796875" style="27"/>
+    <col min="7435" max="7435" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7436" max="7680" width="9.1796875" style="27"/>
+    <col min="7681" max="7681" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="24.81640625" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7685" max="7685" width="25" style="27" customWidth="1"/>
+    <col min="7686" max="7686" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7688" max="7688" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7690" max="7690" width="9.1796875" style="27"/>
+    <col min="7691" max="7691" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7692" max="7936" width="9.1796875" style="27"/>
+    <col min="7937" max="7937" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="24.81640625" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7941" max="7941" width="25" style="27" customWidth="1"/>
+    <col min="7942" max="7942" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7944" max="7944" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7946" max="7946" width="9.1796875" style="27"/>
+    <col min="7947" max="7947" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7948" max="8192" width="9.1796875" style="27"/>
+    <col min="8193" max="8193" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8197" max="8197" width="25" style="27" customWidth="1"/>
+    <col min="8198" max="8198" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8200" max="8200" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8202" max="8202" width="9.1796875" style="27"/>
+    <col min="8203" max="8203" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8204" max="8448" width="9.1796875" style="27"/>
+    <col min="8449" max="8449" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8453" max="8453" width="25" style="27" customWidth="1"/>
+    <col min="8454" max="8454" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8456" max="8456" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8458" max="8458" width="9.1796875" style="27"/>
+    <col min="8459" max="8459" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8460" max="8704" width="9.1796875" style="27"/>
+    <col min="8705" max="8705" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8709" max="8709" width="25" style="27" customWidth="1"/>
+    <col min="8710" max="8710" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8712" max="8712" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8714" max="8714" width="9.1796875" style="27"/>
+    <col min="8715" max="8715" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8716" max="8960" width="9.1796875" style="27"/>
+    <col min="8961" max="8961" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8965" max="8965" width="25" style="27" customWidth="1"/>
+    <col min="8966" max="8966" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8968" max="8968" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8970" max="8970" width="9.1796875" style="27"/>
+    <col min="8971" max="8971" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8972" max="9216" width="9.1796875" style="27"/>
+    <col min="9217" max="9217" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="24.81640625" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9221" max="9221" width="25" style="27" customWidth="1"/>
+    <col min="9222" max="9222" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9224" max="9224" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9226" max="9226" width="9.1796875" style="27"/>
+    <col min="9227" max="9227" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9228" max="9472" width="9.1796875" style="27"/>
+    <col min="9473" max="9473" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="24.81640625" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9477" max="9477" width="25" style="27" customWidth="1"/>
+    <col min="9478" max="9478" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9480" max="9480" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9482" max="9482" width="9.1796875" style="27"/>
+    <col min="9483" max="9483" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9484" max="9728" width="9.1796875" style="27"/>
+    <col min="9729" max="9729" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="24.81640625" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9733" max="9733" width="25" style="27" customWidth="1"/>
+    <col min="9734" max="9734" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9736" max="9736" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9738" max="9738" width="9.1796875" style="27"/>
+    <col min="9739" max="9739" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9740" max="9984" width="9.1796875" style="27"/>
+    <col min="9985" max="9985" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="24.81640625" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9989" max="9989" width="25" style="27" customWidth="1"/>
+    <col min="9990" max="9990" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9992" max="9992" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9994" max="9994" width="9.1796875" style="27"/>
+    <col min="9995" max="9995" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9996" max="10240" width="9.1796875" style="27"/>
+    <col min="10241" max="10241" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="24.81640625" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10245" max="10245" width="25" style="27" customWidth="1"/>
+    <col min="10246" max="10246" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10248" max="10248" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10250" max="10250" width="9.1796875" style="27"/>
+    <col min="10251" max="10251" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10252" max="10496" width="9.1796875" style="27"/>
+    <col min="10497" max="10497" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="24.81640625" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10501" max="10501" width="25" style="27" customWidth="1"/>
+    <col min="10502" max="10502" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10504" max="10504" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10506" max="10506" width="9.1796875" style="27"/>
+    <col min="10507" max="10507" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10508" max="10752" width="9.1796875" style="27"/>
+    <col min="10753" max="10753" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="24.81640625" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10757" max="10757" width="25" style="27" customWidth="1"/>
+    <col min="10758" max="10758" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10760" max="10760" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10762" max="10762" width="9.1796875" style="27"/>
+    <col min="10763" max="10763" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10764" max="11008" width="9.1796875" style="27"/>
+    <col min="11009" max="11009" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="24.81640625" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11013" max="11013" width="25" style="27" customWidth="1"/>
+    <col min="11014" max="11014" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11016" max="11016" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11018" max="11018" width="9.1796875" style="27"/>
+    <col min="11019" max="11019" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11020" max="11264" width="9.1796875" style="27"/>
+    <col min="11265" max="11265" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="24.81640625" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11269" max="11269" width="25" style="27" customWidth="1"/>
+    <col min="11270" max="11270" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11272" max="11272" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11274" max="11274" width="9.1796875" style="27"/>
+    <col min="11275" max="11275" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11276" max="11520" width="9.1796875" style="27"/>
+    <col min="11521" max="11521" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="24.81640625" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11525" max="11525" width="25" style="27" customWidth="1"/>
+    <col min="11526" max="11526" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11528" max="11528" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11530" max="11530" width="9.1796875" style="27"/>
+    <col min="11531" max="11531" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11532" max="11776" width="9.1796875" style="27"/>
+    <col min="11777" max="11777" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="24.81640625" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11781" max="11781" width="25" style="27" customWidth="1"/>
+    <col min="11782" max="11782" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11784" max="11784" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11786" max="11786" width="9.1796875" style="27"/>
+    <col min="11787" max="11787" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11788" max="12032" width="9.1796875" style="27"/>
+    <col min="12033" max="12033" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="24.81640625" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12037" max="12037" width="25" style="27" customWidth="1"/>
+    <col min="12038" max="12038" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12040" max="12040" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12042" max="12042" width="9.1796875" style="27"/>
+    <col min="12043" max="12043" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12044" max="12288" width="9.1796875" style="27"/>
+    <col min="12289" max="12289" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="24.81640625" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12293" max="12293" width="25" style="27" customWidth="1"/>
+    <col min="12294" max="12294" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12296" max="12296" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12298" max="12298" width="9.1796875" style="27"/>
+    <col min="12299" max="12299" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12300" max="12544" width="9.1796875" style="27"/>
+    <col min="12545" max="12545" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="24.81640625" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12549" max="12549" width="25" style="27" customWidth="1"/>
+    <col min="12550" max="12550" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12552" max="12552" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12554" max="12554" width="9.1796875" style="27"/>
+    <col min="12555" max="12555" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12556" max="12800" width="9.1796875" style="27"/>
+    <col min="12801" max="12801" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="24.81640625" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12805" max="12805" width="25" style="27" customWidth="1"/>
+    <col min="12806" max="12806" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12808" max="12808" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12810" max="12810" width="9.1796875" style="27"/>
+    <col min="12811" max="12811" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12812" max="13056" width="9.1796875" style="27"/>
+    <col min="13057" max="13057" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="24.81640625" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13061" max="13061" width="25" style="27" customWidth="1"/>
+    <col min="13062" max="13062" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13064" max="13064" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13066" max="13066" width="9.1796875" style="27"/>
+    <col min="13067" max="13067" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13068" max="13312" width="9.1796875" style="27"/>
+    <col min="13313" max="13313" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="24.81640625" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13317" max="13317" width="25" style="27" customWidth="1"/>
+    <col min="13318" max="13318" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13320" max="13320" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13322" max="13322" width="9.1796875" style="27"/>
+    <col min="13323" max="13323" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13324" max="13568" width="9.1796875" style="27"/>
+    <col min="13569" max="13569" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="24.81640625" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13573" max="13573" width="25" style="27" customWidth="1"/>
+    <col min="13574" max="13574" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13576" max="13576" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13578" max="13578" width="9.1796875" style="27"/>
+    <col min="13579" max="13579" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13580" max="13824" width="9.1796875" style="27"/>
+    <col min="13825" max="13825" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="24.81640625" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13829" max="13829" width="25" style="27" customWidth="1"/>
+    <col min="13830" max="13830" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13832" max="13832" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13834" max="13834" width="9.1796875" style="27"/>
+    <col min="13835" max="13835" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13836" max="14080" width="9.1796875" style="27"/>
+    <col min="14081" max="14081" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="24.81640625" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14085" max="14085" width="25" style="27" customWidth="1"/>
+    <col min="14086" max="14086" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14088" max="14088" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14090" max="14090" width="9.1796875" style="27"/>
+    <col min="14091" max="14091" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14092" max="14336" width="9.1796875" style="27"/>
+    <col min="14337" max="14337" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="24.81640625" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14341" max="14341" width="25" style="27" customWidth="1"/>
+    <col min="14342" max="14342" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14344" max="14344" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14346" max="14346" width="9.1796875" style="27"/>
+    <col min="14347" max="14347" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14348" max="14592" width="9.1796875" style="27"/>
+    <col min="14593" max="14593" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="24.81640625" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14597" max="14597" width="25" style="27" customWidth="1"/>
+    <col min="14598" max="14598" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14600" max="14600" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14602" max="14602" width="9.1796875" style="27"/>
+    <col min="14603" max="14603" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14604" max="14848" width="9.1796875" style="27"/>
+    <col min="14849" max="14849" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="24.81640625" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14853" max="14853" width="25" style="27" customWidth="1"/>
+    <col min="14854" max="14854" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14856" max="14856" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14858" max="14858" width="9.1796875" style="27"/>
+    <col min="14859" max="14859" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14860" max="15104" width="9.1796875" style="27"/>
+    <col min="15105" max="15105" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="24.81640625" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15109" max="15109" width="25" style="27" customWidth="1"/>
+    <col min="15110" max="15110" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15112" max="15112" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15114" max="15114" width="9.1796875" style="27"/>
+    <col min="15115" max="15115" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15116" max="15360" width="9.1796875" style="27"/>
+    <col min="15361" max="15361" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="24.81640625" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15365" max="15365" width="25" style="27" customWidth="1"/>
+    <col min="15366" max="15366" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15368" max="15368" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15370" max="15370" width="9.1796875" style="27"/>
+    <col min="15371" max="15371" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15372" max="15616" width="9.1796875" style="27"/>
+    <col min="15617" max="15617" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="24.81640625" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15621" max="15621" width="25" style="27" customWidth="1"/>
+    <col min="15622" max="15622" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15624" max="15624" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15626" max="15626" width="9.1796875" style="27"/>
+    <col min="15627" max="15627" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15628" max="15872" width="9.1796875" style="27"/>
+    <col min="15873" max="15873" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="24.81640625" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15877" max="15877" width="25" style="27" customWidth="1"/>
+    <col min="15878" max="15878" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15880" max="15880" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15882" max="15882" width="9.1796875" style="27"/>
+    <col min="15883" max="15883" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15884" max="16128" width="9.1796875" style="27"/>
+    <col min="16129" max="16129" width="30.54296875" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="24.81640625" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="27.54296875" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="32.54296875" style="27" customWidth="1"/>
+    <col min="16133" max="16133" width="25" style="27" customWidth="1"/>
+    <col min="16134" max="16134" width="23.54296875" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="19.81640625" style="27" customWidth="1"/>
+    <col min="16136" max="16136" width="16.81640625" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="13.26953125" style="27" customWidth="1"/>
+    <col min="16138" max="16138" width="9.1796875" style="27"/>
+    <col min="16139" max="16139" width="14.81640625" style="27" customWidth="1"/>
+    <col min="16140" max="16384" width="9.1796875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="148" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="37" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A30" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="37" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F22" r:id="rId1" xr:uid="{F3D08764-C4E2-48B2-A0E2-587EDC435DC2}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{5C5A21AA-9CFC-40EC-AF7E-A6ED3BFDD5FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1C19A5-DCAB-4493-97E2-73D465970DDE}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>886</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>887</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
+        <v>888</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>889</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>890</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>891</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="54" t="s">
+        <v>892</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>893</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>894</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>895</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="311" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="54" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>897</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>898</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>899</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>900</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="297.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="54" t="s">
+        <v>901</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>902</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>903</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>904</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>905</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="297.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="54" t="s">
+        <v>906</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>910</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="392" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="54" t="s">
+        <v>911</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>913</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>914</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="365" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="54" t="s">
+        <v>915</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>916</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>918</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="297.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>920</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>921</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>922</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="270.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="54" t="s">
+        <v>923</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>926</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>927</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="257" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="54" t="s">
+        <v>928</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>929</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>930</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>932</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="54" t="s">
+        <v>933</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>934</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>935</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>936</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>937</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="54" t="s">
+        <v>933</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>938</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>939</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>940</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="365" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>942</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>943</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>944</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="405.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>947</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>948</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="365" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="54" t="s">
+        <v>950</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>951</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>952</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>953</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="351.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="54" t="s">
+        <v>954</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>955</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>956</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>957</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="54" t="s">
+        <v>958</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>959</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>960</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>961</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="54" t="s">
+        <v>962</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>963</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>965</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51BAAB0-E574-4439-98F0-4C0C992F4A4D}">
   <dimension ref="A1:J22"/>
@@ -3350,11 +7770,2905 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E21280-E866-41E9-9D13-F8F9BA981A45}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="46">
+        <v>45379</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1D2784-7139-4D89-B450-A41FA0303767}">
+  <dimension ref="A1:K82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="25" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27"/>
+    <col min="11" max="11" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12" max="256" width="9.1796875" style="27"/>
+    <col min="257" max="257" width="30.54296875" style="27" customWidth="1"/>
+    <col min="258" max="258" width="38.7265625" style="27" customWidth="1"/>
+    <col min="259" max="259" width="27.54296875" style="27" customWidth="1"/>
+    <col min="260" max="260" width="32.54296875" style="27" customWidth="1"/>
+    <col min="261" max="261" width="25" style="27" customWidth="1"/>
+    <col min="262" max="262" width="23.54296875" style="27" customWidth="1"/>
+    <col min="263" max="263" width="19.81640625" style="27" customWidth="1"/>
+    <col min="264" max="264" width="16.81640625" style="27" customWidth="1"/>
+    <col min="265" max="265" width="13.26953125" style="27" customWidth="1"/>
+    <col min="266" max="266" width="9.1796875" style="27"/>
+    <col min="267" max="267" width="14.81640625" style="27" customWidth="1"/>
+    <col min="268" max="512" width="9.1796875" style="27"/>
+    <col min="513" max="513" width="30.54296875" style="27" customWidth="1"/>
+    <col min="514" max="514" width="38.7265625" style="27" customWidth="1"/>
+    <col min="515" max="515" width="27.54296875" style="27" customWidth="1"/>
+    <col min="516" max="516" width="32.54296875" style="27" customWidth="1"/>
+    <col min="517" max="517" width="25" style="27" customWidth="1"/>
+    <col min="518" max="518" width="23.54296875" style="27" customWidth="1"/>
+    <col min="519" max="519" width="19.81640625" style="27" customWidth="1"/>
+    <col min="520" max="520" width="16.81640625" style="27" customWidth="1"/>
+    <col min="521" max="521" width="13.26953125" style="27" customWidth="1"/>
+    <col min="522" max="522" width="9.1796875" style="27"/>
+    <col min="523" max="523" width="14.81640625" style="27" customWidth="1"/>
+    <col min="524" max="768" width="9.1796875" style="27"/>
+    <col min="769" max="769" width="30.54296875" style="27" customWidth="1"/>
+    <col min="770" max="770" width="38.7265625" style="27" customWidth="1"/>
+    <col min="771" max="771" width="27.54296875" style="27" customWidth="1"/>
+    <col min="772" max="772" width="32.54296875" style="27" customWidth="1"/>
+    <col min="773" max="773" width="25" style="27" customWidth="1"/>
+    <col min="774" max="774" width="23.54296875" style="27" customWidth="1"/>
+    <col min="775" max="775" width="19.81640625" style="27" customWidth="1"/>
+    <col min="776" max="776" width="16.81640625" style="27" customWidth="1"/>
+    <col min="777" max="777" width="13.26953125" style="27" customWidth="1"/>
+    <col min="778" max="778" width="9.1796875" style="27"/>
+    <col min="779" max="779" width="14.81640625" style="27" customWidth="1"/>
+    <col min="780" max="1024" width="9.1796875" style="27"/>
+    <col min="1025" max="1025" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="38.7265625" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1029" max="1029" width="25" style="27" customWidth="1"/>
+    <col min="1030" max="1030" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1032" max="1032" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1034" max="1034" width="9.1796875" style="27"/>
+    <col min="1035" max="1035" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1036" max="1280" width="9.1796875" style="27"/>
+    <col min="1281" max="1281" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="38.7265625" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1285" max="1285" width="25" style="27" customWidth="1"/>
+    <col min="1286" max="1286" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1288" max="1288" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1290" max="1290" width="9.1796875" style="27"/>
+    <col min="1291" max="1291" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1292" max="1536" width="9.1796875" style="27"/>
+    <col min="1537" max="1537" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="38.7265625" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1541" max="1541" width="25" style="27" customWidth="1"/>
+    <col min="1542" max="1542" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1544" max="1544" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1546" max="1546" width="9.1796875" style="27"/>
+    <col min="1547" max="1547" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1548" max="1792" width="9.1796875" style="27"/>
+    <col min="1793" max="1793" width="30.54296875" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="38.7265625" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="27.54296875" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="32.54296875" style="27" customWidth="1"/>
+    <col min="1797" max="1797" width="25" style="27" customWidth="1"/>
+    <col min="1798" max="1798" width="23.54296875" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1800" max="1800" width="16.81640625" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="13.26953125" style="27" customWidth="1"/>
+    <col min="1802" max="1802" width="9.1796875" style="27"/>
+    <col min="1803" max="1803" width="14.81640625" style="27" customWidth="1"/>
+    <col min="1804" max="2048" width="9.1796875" style="27"/>
+    <col min="2049" max="2049" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="38.7265625" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2053" max="2053" width="25" style="27" customWidth="1"/>
+    <col min="2054" max="2054" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2056" max="2056" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2058" max="2058" width="9.1796875" style="27"/>
+    <col min="2059" max="2059" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2060" max="2304" width="9.1796875" style="27"/>
+    <col min="2305" max="2305" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="38.7265625" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2309" max="2309" width="25" style="27" customWidth="1"/>
+    <col min="2310" max="2310" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2312" max="2312" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2314" max="2314" width="9.1796875" style="27"/>
+    <col min="2315" max="2315" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2316" max="2560" width="9.1796875" style="27"/>
+    <col min="2561" max="2561" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="38.7265625" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2565" max="2565" width="25" style="27" customWidth="1"/>
+    <col min="2566" max="2566" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2568" max="2568" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2570" max="2570" width="9.1796875" style="27"/>
+    <col min="2571" max="2571" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2572" max="2816" width="9.1796875" style="27"/>
+    <col min="2817" max="2817" width="30.54296875" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="38.7265625" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="27.54296875" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="32.54296875" style="27" customWidth="1"/>
+    <col min="2821" max="2821" width="25" style="27" customWidth="1"/>
+    <col min="2822" max="2822" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2824" max="2824" width="16.81640625" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="13.26953125" style="27" customWidth="1"/>
+    <col min="2826" max="2826" width="9.1796875" style="27"/>
+    <col min="2827" max="2827" width="14.81640625" style="27" customWidth="1"/>
+    <col min="2828" max="3072" width="9.1796875" style="27"/>
+    <col min="3073" max="3073" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="38.7265625" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3077" max="3077" width="25" style="27" customWidth="1"/>
+    <col min="3078" max="3078" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3080" max="3080" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3082" max="3082" width="9.1796875" style="27"/>
+    <col min="3083" max="3083" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3084" max="3328" width="9.1796875" style="27"/>
+    <col min="3329" max="3329" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="38.7265625" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3333" max="3333" width="25" style="27" customWidth="1"/>
+    <col min="3334" max="3334" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3336" max="3336" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3338" max="3338" width="9.1796875" style="27"/>
+    <col min="3339" max="3339" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3340" max="3584" width="9.1796875" style="27"/>
+    <col min="3585" max="3585" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="38.7265625" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3589" max="3589" width="25" style="27" customWidth="1"/>
+    <col min="3590" max="3590" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3592" max="3592" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3594" max="3594" width="9.1796875" style="27"/>
+    <col min="3595" max="3595" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3596" max="3840" width="9.1796875" style="27"/>
+    <col min="3841" max="3841" width="30.54296875" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="38.7265625" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="27.54296875" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="32.54296875" style="27" customWidth="1"/>
+    <col min="3845" max="3845" width="25" style="27" customWidth="1"/>
+    <col min="3846" max="3846" width="23.54296875" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3848" max="3848" width="16.81640625" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="13.26953125" style="27" customWidth="1"/>
+    <col min="3850" max="3850" width="9.1796875" style="27"/>
+    <col min="3851" max="3851" width="14.81640625" style="27" customWidth="1"/>
+    <col min="3852" max="4096" width="9.1796875" style="27"/>
+    <col min="4097" max="4097" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="38.7265625" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4101" max="4101" width="25" style="27" customWidth="1"/>
+    <col min="4102" max="4102" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4104" max="4104" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4106" max="4106" width="9.1796875" style="27"/>
+    <col min="4107" max="4107" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4108" max="4352" width="9.1796875" style="27"/>
+    <col min="4353" max="4353" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="38.7265625" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4357" max="4357" width="25" style="27" customWidth="1"/>
+    <col min="4358" max="4358" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4360" max="4360" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4362" max="4362" width="9.1796875" style="27"/>
+    <col min="4363" max="4363" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4364" max="4608" width="9.1796875" style="27"/>
+    <col min="4609" max="4609" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="38.7265625" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4613" max="4613" width="25" style="27" customWidth="1"/>
+    <col min="4614" max="4614" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4616" max="4616" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4618" max="4618" width="9.1796875" style="27"/>
+    <col min="4619" max="4619" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4620" max="4864" width="9.1796875" style="27"/>
+    <col min="4865" max="4865" width="30.54296875" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="38.7265625" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="27.54296875" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="32.54296875" style="27" customWidth="1"/>
+    <col min="4869" max="4869" width="25" style="27" customWidth="1"/>
+    <col min="4870" max="4870" width="23.54296875" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4872" max="4872" width="16.81640625" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="13.26953125" style="27" customWidth="1"/>
+    <col min="4874" max="4874" width="9.1796875" style="27"/>
+    <col min="4875" max="4875" width="14.81640625" style="27" customWidth="1"/>
+    <col min="4876" max="5120" width="9.1796875" style="27"/>
+    <col min="5121" max="5121" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="38.7265625" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5125" max="5125" width="25" style="27" customWidth="1"/>
+    <col min="5126" max="5126" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5128" max="5128" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5130" max="5130" width="9.1796875" style="27"/>
+    <col min="5131" max="5131" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5132" max="5376" width="9.1796875" style="27"/>
+    <col min="5377" max="5377" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="38.7265625" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5381" max="5381" width="25" style="27" customWidth="1"/>
+    <col min="5382" max="5382" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5384" max="5384" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5386" max="5386" width="9.1796875" style="27"/>
+    <col min="5387" max="5387" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5388" max="5632" width="9.1796875" style="27"/>
+    <col min="5633" max="5633" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="38.7265625" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5637" max="5637" width="25" style="27" customWidth="1"/>
+    <col min="5638" max="5638" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5640" max="5640" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5642" max="5642" width="9.1796875" style="27"/>
+    <col min="5643" max="5643" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5644" max="5888" width="9.1796875" style="27"/>
+    <col min="5889" max="5889" width="30.54296875" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="38.7265625" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="27.54296875" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="32.54296875" style="27" customWidth="1"/>
+    <col min="5893" max="5893" width="25" style="27" customWidth="1"/>
+    <col min="5894" max="5894" width="23.54296875" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5896" max="5896" width="16.81640625" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="13.26953125" style="27" customWidth="1"/>
+    <col min="5898" max="5898" width="9.1796875" style="27"/>
+    <col min="5899" max="5899" width="14.81640625" style="27" customWidth="1"/>
+    <col min="5900" max="6144" width="9.1796875" style="27"/>
+    <col min="6145" max="6145" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="38.7265625" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6149" max="6149" width="25" style="27" customWidth="1"/>
+    <col min="6150" max="6150" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6152" max="6152" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6154" max="6154" width="9.1796875" style="27"/>
+    <col min="6155" max="6155" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6156" max="6400" width="9.1796875" style="27"/>
+    <col min="6401" max="6401" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="38.7265625" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6405" max="6405" width="25" style="27" customWidth="1"/>
+    <col min="6406" max="6406" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6408" max="6408" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6410" max="6410" width="9.1796875" style="27"/>
+    <col min="6411" max="6411" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6412" max="6656" width="9.1796875" style="27"/>
+    <col min="6657" max="6657" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="38.7265625" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6661" max="6661" width="25" style="27" customWidth="1"/>
+    <col min="6662" max="6662" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6664" max="6664" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6666" max="6666" width="9.1796875" style="27"/>
+    <col min="6667" max="6667" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6668" max="6912" width="9.1796875" style="27"/>
+    <col min="6913" max="6913" width="30.54296875" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="38.7265625" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="27.54296875" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="32.54296875" style="27" customWidth="1"/>
+    <col min="6917" max="6917" width="25" style="27" customWidth="1"/>
+    <col min="6918" max="6918" width="23.54296875" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6920" max="6920" width="16.81640625" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="13.26953125" style="27" customWidth="1"/>
+    <col min="6922" max="6922" width="9.1796875" style="27"/>
+    <col min="6923" max="6923" width="14.81640625" style="27" customWidth="1"/>
+    <col min="6924" max="7168" width="9.1796875" style="27"/>
+    <col min="7169" max="7169" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="38.7265625" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7173" max="7173" width="25" style="27" customWidth="1"/>
+    <col min="7174" max="7174" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7176" max="7176" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7178" max="7178" width="9.1796875" style="27"/>
+    <col min="7179" max="7179" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7180" max="7424" width="9.1796875" style="27"/>
+    <col min="7425" max="7425" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="38.7265625" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7429" max="7429" width="25" style="27" customWidth="1"/>
+    <col min="7430" max="7430" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7432" max="7432" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7434" max="7434" width="9.1796875" style="27"/>
+    <col min="7435" max="7435" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7436" max="7680" width="9.1796875" style="27"/>
+    <col min="7681" max="7681" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="38.7265625" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7685" max="7685" width="25" style="27" customWidth="1"/>
+    <col min="7686" max="7686" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7688" max="7688" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7690" max="7690" width="9.1796875" style="27"/>
+    <col min="7691" max="7691" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7692" max="7936" width="9.1796875" style="27"/>
+    <col min="7937" max="7937" width="30.54296875" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="38.7265625" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="27.54296875" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="32.54296875" style="27" customWidth="1"/>
+    <col min="7941" max="7941" width="25" style="27" customWidth="1"/>
+    <col min="7942" max="7942" width="23.54296875" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7944" max="7944" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="13.26953125" style="27" customWidth="1"/>
+    <col min="7946" max="7946" width="9.1796875" style="27"/>
+    <col min="7947" max="7947" width="14.81640625" style="27" customWidth="1"/>
+    <col min="7948" max="8192" width="9.1796875" style="27"/>
+    <col min="8193" max="8193" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="38.7265625" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8197" max="8197" width="25" style="27" customWidth="1"/>
+    <col min="8198" max="8198" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8200" max="8200" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8202" max="8202" width="9.1796875" style="27"/>
+    <col min="8203" max="8203" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8204" max="8448" width="9.1796875" style="27"/>
+    <col min="8449" max="8449" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="38.7265625" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8453" max="8453" width="25" style="27" customWidth="1"/>
+    <col min="8454" max="8454" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8456" max="8456" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8458" max="8458" width="9.1796875" style="27"/>
+    <col min="8459" max="8459" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8460" max="8704" width="9.1796875" style="27"/>
+    <col min="8705" max="8705" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="38.7265625" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8709" max="8709" width="25" style="27" customWidth="1"/>
+    <col min="8710" max="8710" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8712" max="8712" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8714" max="8714" width="9.1796875" style="27"/>
+    <col min="8715" max="8715" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8716" max="8960" width="9.1796875" style="27"/>
+    <col min="8961" max="8961" width="30.54296875" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="38.7265625" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="27.54296875" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="32.54296875" style="27" customWidth="1"/>
+    <col min="8965" max="8965" width="25" style="27" customWidth="1"/>
+    <col min="8966" max="8966" width="23.54296875" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8968" max="8968" width="16.81640625" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8970" max="8970" width="9.1796875" style="27"/>
+    <col min="8971" max="8971" width="14.81640625" style="27" customWidth="1"/>
+    <col min="8972" max="9216" width="9.1796875" style="27"/>
+    <col min="9217" max="9217" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="38.7265625" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9221" max="9221" width="25" style="27" customWidth="1"/>
+    <col min="9222" max="9222" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9224" max="9224" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9226" max="9226" width="9.1796875" style="27"/>
+    <col min="9227" max="9227" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9228" max="9472" width="9.1796875" style="27"/>
+    <col min="9473" max="9473" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="38.7265625" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9477" max="9477" width="25" style="27" customWidth="1"/>
+    <col min="9478" max="9478" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9480" max="9480" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9482" max="9482" width="9.1796875" style="27"/>
+    <col min="9483" max="9483" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9484" max="9728" width="9.1796875" style="27"/>
+    <col min="9729" max="9729" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="38.7265625" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9733" max="9733" width="25" style="27" customWidth="1"/>
+    <col min="9734" max="9734" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9736" max="9736" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9738" max="9738" width="9.1796875" style="27"/>
+    <col min="9739" max="9739" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9740" max="9984" width="9.1796875" style="27"/>
+    <col min="9985" max="9985" width="30.54296875" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="38.7265625" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="27.54296875" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="32.54296875" style="27" customWidth="1"/>
+    <col min="9989" max="9989" width="25" style="27" customWidth="1"/>
+    <col min="9990" max="9990" width="23.54296875" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9992" max="9992" width="16.81640625" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="13.26953125" style="27" customWidth="1"/>
+    <col min="9994" max="9994" width="9.1796875" style="27"/>
+    <col min="9995" max="9995" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9996" max="10240" width="9.1796875" style="27"/>
+    <col min="10241" max="10241" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="38.7265625" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10245" max="10245" width="25" style="27" customWidth="1"/>
+    <col min="10246" max="10246" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10248" max="10248" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10250" max="10250" width="9.1796875" style="27"/>
+    <col min="10251" max="10251" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10252" max="10496" width="9.1796875" style="27"/>
+    <col min="10497" max="10497" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="38.7265625" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10501" max="10501" width="25" style="27" customWidth="1"/>
+    <col min="10502" max="10502" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10504" max="10504" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10506" max="10506" width="9.1796875" style="27"/>
+    <col min="10507" max="10507" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10508" max="10752" width="9.1796875" style="27"/>
+    <col min="10753" max="10753" width="30.54296875" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="38.7265625" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="27.54296875" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10757" max="10757" width="25" style="27" customWidth="1"/>
+    <col min="10758" max="10758" width="23.54296875" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10760" max="10760" width="16.81640625" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="13.26953125" style="27" customWidth="1"/>
+    <col min="10762" max="10762" width="9.1796875" style="27"/>
+    <col min="10763" max="10763" width="14.81640625" style="27" customWidth="1"/>
+    <col min="10764" max="11008" width="9.1796875" style="27"/>
+    <col min="11009" max="11009" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="38.7265625" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11013" max="11013" width="25" style="27" customWidth="1"/>
+    <col min="11014" max="11014" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11016" max="11016" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11018" max="11018" width="9.1796875" style="27"/>
+    <col min="11019" max="11019" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11020" max="11264" width="9.1796875" style="27"/>
+    <col min="11265" max="11265" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="38.7265625" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11269" max="11269" width="25" style="27" customWidth="1"/>
+    <col min="11270" max="11270" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11272" max="11272" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11274" max="11274" width="9.1796875" style="27"/>
+    <col min="11275" max="11275" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11276" max="11520" width="9.1796875" style="27"/>
+    <col min="11521" max="11521" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="38.7265625" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11525" max="11525" width="25" style="27" customWidth="1"/>
+    <col min="11526" max="11526" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11528" max="11528" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11530" max="11530" width="9.1796875" style="27"/>
+    <col min="11531" max="11531" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11532" max="11776" width="9.1796875" style="27"/>
+    <col min="11777" max="11777" width="30.54296875" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="38.7265625" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="27.54296875" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="32.54296875" style="27" customWidth="1"/>
+    <col min="11781" max="11781" width="25" style="27" customWidth="1"/>
+    <col min="11782" max="11782" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11784" max="11784" width="16.81640625" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="13.26953125" style="27" customWidth="1"/>
+    <col min="11786" max="11786" width="9.1796875" style="27"/>
+    <col min="11787" max="11787" width="14.81640625" style="27" customWidth="1"/>
+    <col min="11788" max="12032" width="9.1796875" style="27"/>
+    <col min="12033" max="12033" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="38.7265625" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12037" max="12037" width="25" style="27" customWidth="1"/>
+    <col min="12038" max="12038" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12040" max="12040" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12042" max="12042" width="9.1796875" style="27"/>
+    <col min="12043" max="12043" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12044" max="12288" width="9.1796875" style="27"/>
+    <col min="12289" max="12289" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="38.7265625" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12293" max="12293" width="25" style="27" customWidth="1"/>
+    <col min="12294" max="12294" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12296" max="12296" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12298" max="12298" width="9.1796875" style="27"/>
+    <col min="12299" max="12299" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12300" max="12544" width="9.1796875" style="27"/>
+    <col min="12545" max="12545" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="38.7265625" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12549" max="12549" width="25" style="27" customWidth="1"/>
+    <col min="12550" max="12550" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12552" max="12552" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12554" max="12554" width="9.1796875" style="27"/>
+    <col min="12555" max="12555" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12556" max="12800" width="9.1796875" style="27"/>
+    <col min="12801" max="12801" width="30.54296875" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="38.7265625" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="27.54296875" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="32.54296875" style="27" customWidth="1"/>
+    <col min="12805" max="12805" width="25" style="27" customWidth="1"/>
+    <col min="12806" max="12806" width="23.54296875" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12808" max="12808" width="16.81640625" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="13.26953125" style="27" customWidth="1"/>
+    <col min="12810" max="12810" width="9.1796875" style="27"/>
+    <col min="12811" max="12811" width="14.81640625" style="27" customWidth="1"/>
+    <col min="12812" max="13056" width="9.1796875" style="27"/>
+    <col min="13057" max="13057" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="38.7265625" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13061" max="13061" width="25" style="27" customWidth="1"/>
+    <col min="13062" max="13062" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13064" max="13064" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13066" max="13066" width="9.1796875" style="27"/>
+    <col min="13067" max="13067" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13068" max="13312" width="9.1796875" style="27"/>
+    <col min="13313" max="13313" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="38.7265625" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13317" max="13317" width="25" style="27" customWidth="1"/>
+    <col min="13318" max="13318" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13320" max="13320" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13322" max="13322" width="9.1796875" style="27"/>
+    <col min="13323" max="13323" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13324" max="13568" width="9.1796875" style="27"/>
+    <col min="13569" max="13569" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="38.7265625" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13573" max="13573" width="25" style="27" customWidth="1"/>
+    <col min="13574" max="13574" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13576" max="13576" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13578" max="13578" width="9.1796875" style="27"/>
+    <col min="13579" max="13579" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13580" max="13824" width="9.1796875" style="27"/>
+    <col min="13825" max="13825" width="30.54296875" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="38.7265625" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="27.54296875" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="32.54296875" style="27" customWidth="1"/>
+    <col min="13829" max="13829" width="25" style="27" customWidth="1"/>
+    <col min="13830" max="13830" width="23.54296875" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13832" max="13832" width="16.81640625" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="13.26953125" style="27" customWidth="1"/>
+    <col min="13834" max="13834" width="9.1796875" style="27"/>
+    <col min="13835" max="13835" width="14.81640625" style="27" customWidth="1"/>
+    <col min="13836" max="14080" width="9.1796875" style="27"/>
+    <col min="14081" max="14081" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="38.7265625" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14085" max="14085" width="25" style="27" customWidth="1"/>
+    <col min="14086" max="14086" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14088" max="14088" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14090" max="14090" width="9.1796875" style="27"/>
+    <col min="14091" max="14091" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14092" max="14336" width="9.1796875" style="27"/>
+    <col min="14337" max="14337" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="38.7265625" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14341" max="14341" width="25" style="27" customWidth="1"/>
+    <col min="14342" max="14342" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14344" max="14344" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14346" max="14346" width="9.1796875" style="27"/>
+    <col min="14347" max="14347" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14348" max="14592" width="9.1796875" style="27"/>
+    <col min="14593" max="14593" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="38.7265625" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14597" max="14597" width="25" style="27" customWidth="1"/>
+    <col min="14598" max="14598" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14600" max="14600" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14602" max="14602" width="9.1796875" style="27"/>
+    <col min="14603" max="14603" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14604" max="14848" width="9.1796875" style="27"/>
+    <col min="14849" max="14849" width="30.54296875" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="38.7265625" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="27.54296875" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="32.54296875" style="27" customWidth="1"/>
+    <col min="14853" max="14853" width="25" style="27" customWidth="1"/>
+    <col min="14854" max="14854" width="23.54296875" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14856" max="14856" width="16.81640625" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="13.26953125" style="27" customWidth="1"/>
+    <col min="14858" max="14858" width="9.1796875" style="27"/>
+    <col min="14859" max="14859" width="14.81640625" style="27" customWidth="1"/>
+    <col min="14860" max="15104" width="9.1796875" style="27"/>
+    <col min="15105" max="15105" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="38.7265625" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15109" max="15109" width="25" style="27" customWidth="1"/>
+    <col min="15110" max="15110" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15112" max="15112" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15114" max="15114" width="9.1796875" style="27"/>
+    <col min="15115" max="15115" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15116" max="15360" width="9.1796875" style="27"/>
+    <col min="15361" max="15361" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="38.7265625" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15365" max="15365" width="25" style="27" customWidth="1"/>
+    <col min="15366" max="15366" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15368" max="15368" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15370" max="15370" width="9.1796875" style="27"/>
+    <col min="15371" max="15371" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15372" max="15616" width="9.1796875" style="27"/>
+    <col min="15617" max="15617" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="38.7265625" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15621" max="15621" width="25" style="27" customWidth="1"/>
+    <col min="15622" max="15622" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15624" max="15624" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15626" max="15626" width="9.1796875" style="27"/>
+    <col min="15627" max="15627" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15628" max="15872" width="9.1796875" style="27"/>
+    <col min="15873" max="15873" width="30.54296875" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="38.7265625" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="27.54296875" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="32.54296875" style="27" customWidth="1"/>
+    <col min="15877" max="15877" width="25" style="27" customWidth="1"/>
+    <col min="15878" max="15878" width="23.54296875" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15880" max="15880" width="16.81640625" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="13.26953125" style="27" customWidth="1"/>
+    <col min="15882" max="15882" width="9.1796875" style="27"/>
+    <col min="15883" max="15883" width="14.81640625" style="27" customWidth="1"/>
+    <col min="15884" max="16128" width="9.1796875" style="27"/>
+    <col min="16129" max="16129" width="30.54296875" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="38.7265625" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="27.54296875" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="32.54296875" style="27" customWidth="1"/>
+    <col min="16133" max="16133" width="25" style="27" customWidth="1"/>
+    <col min="16134" max="16134" width="23.54296875" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="19.81640625" style="27" customWidth="1"/>
+    <col min="16136" max="16136" width="16.81640625" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="13.26953125" style="27" customWidth="1"/>
+    <col min="16138" max="16138" width="9.1796875" style="27"/>
+    <col min="16139" max="16139" width="14.81640625" style="27" customWidth="1"/>
+    <col min="16140" max="16384" width="9.1796875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="111" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="74" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="111" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="111" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="148" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="166.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="166.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A30" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="111" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="111" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="F37" s="37"/>
+      <c r="G37" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A40" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A41" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A42" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A43" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A44" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A45" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A46" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A47" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A48" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A49" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A50" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A51" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A52" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A53" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>766</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A54" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A55" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A56" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A57" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A58" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A59" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>785</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A60" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A61" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A62" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>795</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A63" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A64" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A65" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A66" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A67" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A68" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>820</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A71" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>826</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>833</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>848</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>852</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>854</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>859</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>860</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>862</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>863</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>867</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+      <c r="A81" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I81" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="27" t="s">
+        <v>877</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{FC6E7011-5467-45EC-A383-59BC91923B8D}"/>
+    <hyperlink ref="F41" r:id="rId2" xr:uid="{3A924590-85FB-443C-864B-B28EEAC0DC99}"/>
+    <hyperlink ref="F47" r:id="rId3" xr:uid="{F3765A1D-E552-40A2-B053-7302C868B335}"/>
+    <hyperlink ref="F53" r:id="rId4" xr:uid="{A06401FF-6593-4E40-BC6F-41DBC75B0B6D}"/>
+    <hyperlink ref="F59" r:id="rId5" xr:uid="{E9EB2E9F-B04A-4821-A886-FE72B90C21AB}"/>
+    <hyperlink ref="F65" r:id="rId6" xr:uid="{C5B908B2-943A-4B8E-9859-E8A3B53B25D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D6E95D-7E3F-4E1B-8FFB-214ACF8B562B}">
   <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
